--- a/docs/ARTEFATOS(15-23)/RECEBER_PAGAMENTO/Análise de Eventos_Receber_Pagamento.xlsx
+++ b/docs/ARTEFATOS(15-23)/RECEBER_PAGAMENTO/Análise de Eventos_Receber_Pagamento.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bianca Gama Costa\Pictures\REVISAO-OPE\ope_ads\docs\ARTEFATOS(15-23)\RECEBER_PAGAMENTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bianca Gama Costa\Pictures\DENOVO\ope_ads\docs\ARTEFATOS(15-23)\RECEBER_PAGAMENTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Externo</t>
   </si>
@@ -88,13 +88,7 @@
     <t>X(2)</t>
   </si>
   <si>
-    <t>X(3)</t>
-  </si>
-  <si>
     <t>Atendente cobra devedor</t>
-  </si>
-  <si>
-    <t>Operador de caixa registra devedor</t>
   </si>
   <si>
     <t>X(4)</t>
@@ -157,7 +151,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -219,22 +213,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -275,13 +258,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -632,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J997"/>
+  <dimension ref="A1:J996"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -739,7 +719,7 @@
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="5">
@@ -759,41 +739,24 @@
     </row>
     <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
-      <c r="B6" s="16"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="5">
         <v>4</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J6" s="9"/>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="5">
-        <v>5</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="10" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1773,15 +1736,14 @@
     <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A3:A6"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
